--- a/chatbot/summary/PPEDICT_GIMJANG_TOTAL.xlsx
+++ b/chatbot/summary/PPEDICT_GIMJANG_TOTAL.xlsx
@@ -478,7 +478,7 @@
         <v>43754</v>
       </c>
       <c r="B2">
-        <v>16350.30078125</v>
+        <v>134006.703125</v>
       </c>
       <c r="C2">
         <v>28700.68359375</v>
@@ -517,7 +517,7 @@
         <v>12004.8</v>
       </c>
       <c r="O2">
-        <v>218576.5388619688</v>
+        <v>336232.9412057187</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -525,7 +525,7 @@
         <v>43755</v>
       </c>
       <c r="B3">
-        <v>106576.9140625</v>
+        <v>133701.78125</v>
       </c>
       <c r="C3">
         <v>28989.40625</v>
@@ -564,7 +564,7 @@
         <v>12004.8</v>
       </c>
       <c r="O3">
-        <v>309055.6991700312</v>
+        <v>336180.5663575312</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -572,7 +572,7 @@
         <v>43756</v>
       </c>
       <c r="B4">
-        <v>137589.203125</v>
+        <v>132249.03125</v>
       </c>
       <c r="C4">
         <v>28986.525390625</v>
@@ -611,7 +611,7 @@
         <v>12004.8</v>
       </c>
       <c r="O4">
-        <v>340093.4772605312</v>
+        <v>334753.3053855312</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -619,7 +619,7 @@
         <v>43757</v>
       </c>
       <c r="B5">
-        <v>138261.5</v>
+        <v>130543.546875</v>
       </c>
       <c r="C5">
         <v>29627.921875</v>
@@ -658,7 +658,7 @@
         <v>12004.8</v>
       </c>
       <c r="O5">
-        <v>341734.4727338437</v>
+        <v>334016.5196088437</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -666,7 +666,7 @@
         <v>43758</v>
       </c>
       <c r="B6">
-        <v>135602.171875</v>
+        <v>135696.515625</v>
       </c>
       <c r="C6">
         <v>28682.099609375</v>
@@ -705,7 +705,7 @@
         <v>12004.8</v>
       </c>
       <c r="O6">
-        <v>338023.1127294062</v>
+        <v>338117.4564794062</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -713,7 +713,7 @@
         <v>43759</v>
       </c>
       <c r="B7">
-        <v>128944.390625</v>
+        <v>131548.71875</v>
       </c>
       <c r="C7">
         <v>29290.875</v>
@@ -752,7 +752,7 @@
         <v>12004.8</v>
       </c>
       <c r="O7">
-        <v>332020.2502925625</v>
+        <v>334624.5784175625</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -760,7 +760,7 @@
         <v>43760</v>
       </c>
       <c r="B8">
-        <v>124300.6640625</v>
+        <v>128265.1171875</v>
       </c>
       <c r="C8">
         <v>29486.103515625</v>
@@ -799,7 +799,7 @@
         <v>12004.8</v>
       </c>
       <c r="O8">
-        <v>325532.1092921875</v>
+        <v>329496.5624171875</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -807,7 +807,7 @@
         <v>43761</v>
       </c>
       <c r="B9">
-        <v>120260.046875</v>
+        <v>123230.328125</v>
       </c>
       <c r="C9">
         <v>29321.4609375</v>
@@ -846,7 +846,7 @@
         <v>12004.8</v>
       </c>
       <c r="O9">
-        <v>319270.2149509687</v>
+        <v>322240.4962009687</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -854,7 +854,7 @@
         <v>43762</v>
       </c>
       <c r="B10">
-        <v>115412.953125</v>
+        <v>118166.75</v>
       </c>
       <c r="C10">
         <v>28985.57421875</v>
@@ -893,7 +893,7 @@
         <v>12004.8</v>
       </c>
       <c r="O10">
-        <v>309305.2781302813</v>
+        <v>312059.0750052813</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -901,7 +901,7 @@
         <v>43763</v>
       </c>
       <c r="B11">
-        <v>117798.7578125</v>
+        <v>119873.375</v>
       </c>
       <c r="C11">
         <v>30220.34765625</v>
@@ -940,7 +940,7 @@
         <v>12004.8</v>
       </c>
       <c r="O11">
-        <v>311670.9487304688</v>
+        <v>313745.5659179688</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -948,7 +948,7 @@
         <v>43764</v>
       </c>
       <c r="B12">
-        <v>118052.1015625</v>
+        <v>119655.90625</v>
       </c>
       <c r="C12">
         <v>30655.21484375</v>
@@ -987,7 +987,7 @@
         <v>12004.8</v>
       </c>
       <c r="O12">
-        <v>311999.2713182812</v>
+        <v>313603.0760057812</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -995,7 +995,7 @@
         <v>43765</v>
       </c>
       <c r="B13">
-        <v>119430.46875</v>
+        <v>120536.34375</v>
       </c>
       <c r="C13">
         <v>30651.125</v>
@@ -1034,7 +1034,7 @@
         <v>12004.8</v>
       </c>
       <c r="O13">
-        <v>313144.5895215625</v>
+        <v>314250.4645215625</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1042,7 +1042,7 @@
         <v>43766</v>
       </c>
       <c r="B14">
-        <v>120064.296875</v>
+        <v>120578.671875</v>
       </c>
       <c r="C14">
         <v>29484.921875</v>
@@ -1081,7 +1081,7 @@
         <v>12004.8</v>
       </c>
       <c r="O14">
-        <v>312411.7514648438</v>
+        <v>312926.1264648438</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1089,7 +1089,7 @@
         <v>43767</v>
       </c>
       <c r="B15">
-        <v>117818.453125</v>
+        <v>118170.78125</v>
       </c>
       <c r="C15">
         <v>29705.91796875</v>
@@ -1128,7 +1128,7 @@
         <v>12004.8</v>
       </c>
       <c r="O15">
-        <v>312979.8165429687</v>
+        <v>313332.1446679687</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1136,7 +1136,7 @@
         <v>43768</v>
       </c>
       <c r="B16">
-        <v>110098.2109375</v>
+        <v>110685.65625</v>
       </c>
       <c r="C16">
         <v>29758.19140625</v>
@@ -1175,7 +1175,7 @@
         <v>12004.8</v>
       </c>
       <c r="O16">
-        <v>305143.4581445312</v>
+        <v>305730.9034570312</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1183,7 +1183,7 @@
         <v>43769</v>
       </c>
       <c r="B17">
-        <v>106934.546875</v>
+        <v>107558.984375</v>
       </c>
       <c r="C17">
         <v>29970.212890625</v>
@@ -1222,7 +1222,7 @@
         <v>12004.8</v>
       </c>
       <c r="O17">
-        <v>301510.5633789062</v>
+        <v>302135.0008789062</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1230,7 +1230,7 @@
         <v>43770</v>
       </c>
       <c r="B18">
-        <v>103065.9453125</v>
+        <v>103667.046875</v>
       </c>
       <c r="C18">
         <v>29625.0546875</v>
@@ -1269,7 +1269,7 @@
         <v>12004.8</v>
       </c>
       <c r="O18">
-        <v>297660.8838867187</v>
+        <v>298261.9854492187</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1277,7 +1277,7 @@
         <v>43771</v>
       </c>
       <c r="B19">
-        <v>99699</v>
+        <v>100249.0625</v>
       </c>
       <c r="C19">
         <v>29847.841796875</v>
@@ -1316,7 +1316,7 @@
         <v>12004.8</v>
       </c>
       <c r="O19">
-        <v>296025.0285870625</v>
+        <v>296575.0910870625</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1324,7 +1324,7 @@
         <v>43772</v>
       </c>
       <c r="B20">
-        <v>97685.109375</v>
+        <v>98250.8671875</v>
       </c>
       <c r="C20">
         <v>28663.05078125</v>
@@ -1363,7 +1363,7 @@
         <v>12004.8</v>
       </c>
       <c r="O20">
-        <v>294371.5717059062</v>
+        <v>294937.3295184062</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1371,7 +1371,7 @@
         <v>43773</v>
       </c>
       <c r="B21">
-        <v>96999.0234375</v>
+        <v>97442.046875</v>
       </c>
       <c r="C21">
         <v>28589.73046875</v>
@@ -1410,7 +1410,7 @@
         <v>12004.8</v>
       </c>
       <c r="O21">
-        <v>294911.9473632812</v>
+        <v>295354.9708007812</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1418,7 +1418,7 @@
         <v>43774</v>
       </c>
       <c r="B22">
-        <v>96265</v>
+        <v>96602.5703125</v>
       </c>
       <c r="C22">
         <v>29387.302734375</v>
@@ -1457,7 +1457,7 @@
         <v>12004.8</v>
       </c>
       <c r="O22">
-        <v>294251.2837890625</v>
+        <v>294588.8541015625</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1465,7 +1465,7 @@
         <v>43775</v>
       </c>
       <c r="B23">
-        <v>93309.78125</v>
+        <v>93596.09375</v>
       </c>
       <c r="C23">
         <v>29081.05859375</v>
@@ -1504,7 +1504,7 @@
         <v>12004.8</v>
       </c>
       <c r="O23">
-        <v>290333.3888476563</v>
+        <v>290619.7013476563</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1512,7 +1512,7 @@
         <v>43776</v>
       </c>
       <c r="B24">
-        <v>92012.8515625</v>
+        <v>92419.84375</v>
       </c>
       <c r="C24">
         <v>28766.0859375</v>
@@ -1551,7 +1551,7 @@
         <v>12004.8</v>
       </c>
       <c r="O24">
-        <v>289419.4620117187</v>
+        <v>289826.4541992187</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1559,7 +1559,7 @@
         <v>43777</v>
       </c>
       <c r="B25">
-        <v>93700.4296875</v>
+        <v>94160.171875</v>
       </c>
       <c r="C25">
         <v>29719.890625</v>
@@ -1598,7 +1598,7 @@
         <v>11936</v>
       </c>
       <c r="O25">
-        <v>291662.5396484375</v>
+        <v>292122.2818359375</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1606,7 +1606,7 @@
         <v>43778</v>
       </c>
       <c r="B26">
-        <v>92061.0625</v>
+        <v>92494.859375</v>
       </c>
       <c r="C26">
         <v>27323.90234375</v>
@@ -1645,7 +1645,7 @@
         <v>11936</v>
       </c>
       <c r="O26">
-        <v>288024.8461034375</v>
+        <v>288458.6429784375</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1653,7 +1653,7 @@
         <v>43779</v>
       </c>
       <c r="B27">
-        <v>90439.4453125</v>
+        <v>90846.546875</v>
       </c>
       <c r="C27">
         <v>26726.64453125</v>
@@ -1692,7 +1692,7 @@
         <v>11936</v>
       </c>
       <c r="O27">
-        <v>286503.2790332813</v>
+        <v>286910.3805957813</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1700,7 +1700,7 @@
         <v>43780</v>
       </c>
       <c r="B28">
-        <v>90545.390625</v>
+        <v>90999.140625</v>
       </c>
       <c r="C28">
         <v>26161.078125</v>
@@ -1739,7 +1739,7 @@
         <v>11936</v>
       </c>
       <c r="O28">
-        <v>286959.5098046875</v>
+        <v>287413.2598046875</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1747,7 +1747,7 @@
         <v>43781</v>
       </c>
       <c r="B29">
-        <v>91400.0078125</v>
+        <v>91821.109375</v>
       </c>
       <c r="C29">
         <v>25588.55078125</v>
@@ -1786,7 +1786,7 @@
         <v>11936</v>
       </c>
       <c r="O29">
-        <v>286696.6157421875</v>
+        <v>287117.7173046875</v>
       </c>
     </row>
   </sheetData>
